--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-986803.3243379438</v>
+        <v>-988784.240918368</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553588</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14523237.70155986</v>
+        <v>14531686.90647361</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>278.9426741019099</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>281.0437286241868</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>13.28273443010511</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>208.9978294690248</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>193.9168027940584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>171.4431239546903</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>10.03156470826285</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>147.6979659320285</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>332.3273782743224</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>31.14718956454785</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>115.4685441446653</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.6860793789968</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>21.27862036008273</v>
+        <v>123.733747393033</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>59.77945773664936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.315822205651</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>144.9111210879535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>278.8127496759204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.18937547121017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>104.0592749850562</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766705</v>
       </c>
       <c r="U25" t="n">
-        <v>253.1488561805824</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1796758467005</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>77.36988302551597</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>73.19337109393854</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801189</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437396</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752355</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.452763222454</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>914.0785435469074</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2182.06035969704</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.06035969704</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.06035969704</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>566.5654221758658</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6292392479589</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>566.5654221758658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>566.5654221758658</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W4" t="n">
-        <v>566.5654221758658</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X4" t="n">
-        <v>566.5654221758658</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y4" t="n">
-        <v>566.5654221758658</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1559.428949058529</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1559.428949058529</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1559.428949058529</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="X5" t="n">
-        <v>1949.568281034341</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="Y5" t="n">
-        <v>1559.428949058529</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4665,28 +4665,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
         <v>200.8329293182748</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>717.9960905617243</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>717.9960905617243</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="V7" t="n">
-        <v>578.9391196286279</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="W7" t="n">
-        <v>578.9391196286279</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1527.841322636248</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C8" t="n">
-        <v>1158.878805695836</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>800.6131070890856</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>800.6131070890856</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>389.627202299478</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2434.481106221928</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2103.418218878357</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.441162700369</v>
+        <v>1750.649563608243</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.441162700369</v>
+        <v>1377.183805347164</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.441162700369</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2568.06040664989</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.490968478177</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="C10" t="n">
-        <v>318.490968478177</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084168</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084168</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.3105644220436</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="C13" t="n">
-        <v>712.8170085027681</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
         <v>562.7003690904323</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655738</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X13" t="n">
-        <v>955.1031435655738</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.3105644220436</v>
+        <v>985.7136853104473</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,22 +5458,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336707</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.3990000507114</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C19" t="n">
-        <v>562.3990000507114</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,16 +5677,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119727</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333285</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273986</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>562.3990000507114</v>
+        <v>731.0291971045604</v>
       </c>
       <c r="X19" t="n">
-        <v>562.3990000507114</v>
+        <v>503.039646206543</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.3990000507114</v>
+        <v>503.0396462065431</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,13 +5786,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488377</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>644.1080300429509</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>354.6908600059903</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X22" t="n">
-        <v>126.7013091079729</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.7013091079729</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U25" t="n">
-        <v>1019.424940013486</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>764.7404518075996</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>475.3232817706389</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>247.3337308726216</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018223</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6385,49 +6385,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387938</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030906</v>
+        <v>730.4517433652459</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076204</v>
+        <v>617.2764257187097</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766557</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756336</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590942</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818961</v>
+        <v>902.6804289818925</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652497</v>
+        <v>730.4517433652459</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030906</v>
+        <v>730.4517433652459</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,13 +6871,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,13 +6892,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010317</v>
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,25 +7166,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,10 +7357,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,16 +7494,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7552,22 +7552,22 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254955</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333965</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535629</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893005</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>245.860689527936</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155629</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395179</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.739628723116</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208073</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>145.9682007385451</v>
+        <v>43.51307370559481</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338616</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>34.92085909398384</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>7.710248660670629</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150.6426047107271</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>121.6503804039809</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>64.30500338171873</v>
       </c>
       <c r="U25" t="n">
-        <v>33.08849621799493</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="U28" t="n">
-        <v>103.057676551877</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>34.67368144455457</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>20.21884529571678</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897884</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571469</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1265973.161754641</v>
+        <v>1280604.450904759</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
         <v>175963.0768819691</v>
@@ -26332,16 +26332,16 @@
         <v>175963.0768819691</v>
       </c>
       <c r="I2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819689</v>
       </c>
       <c r="J2" t="n">
         <v>175963.0768819691</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053714</v>
+        <v>183069.9618053713</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194641</v>
@@ -26350,10 +26350,10 @@
         <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284583</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008667</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755742</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26421,34 +26421,34 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="G4" t="n">
-        <v>29303.54555230238</v>
-      </c>
       <c r="H4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649893</v>
+        <v>47468.16806649886</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362281</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362281</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
         <v>51722.3327936228</v>
@@ -26457,7 +26457,7 @@
         <v>51722.3327936228</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662583.3363803165</v>
+        <v>-662583.3363803164</v>
       </c>
       <c r="C6" t="n">
+        <v>-72615.45716577198</v>
+      </c>
+      <c r="D6" t="n">
         <v>-72615.45716577192</v>
       </c>
-      <c r="D6" t="n">
-        <v>-72615.45716577204</v>
-      </c>
       <c r="E6" t="n">
-        <v>-470487.8310959461</v>
+        <v>-470585.290221918</v>
       </c>
       <c r="F6" t="n">
-        <v>54672.20538095008</v>
+        <v>54574.74625497789</v>
       </c>
       <c r="G6" t="n">
-        <v>54672.20538095021</v>
+        <v>54574.74625497792</v>
       </c>
       <c r="H6" t="n">
-        <v>54672.20538095006</v>
+        <v>54574.74625497796</v>
       </c>
       <c r="I6" t="n">
-        <v>54672.20538094992</v>
+        <v>54574.74625497741</v>
       </c>
       <c r="J6" t="n">
-        <v>-121751.0138116429</v>
+        <v>-121848.4729376146</v>
       </c>
       <c r="K6" t="n">
-        <v>-5189.020094196181</v>
+        <v>-5207.51383213035</v>
       </c>
       <c r="L6" t="n">
-        <v>24954.05280494907</v>
+        <v>24954.05280494899</v>
       </c>
       <c r="M6" t="n">
-        <v>-99504.05562802128</v>
+        <v>-99504.05562802136</v>
       </c>
       <c r="N6" t="n">
-        <v>35296.95960581572</v>
+        <v>35296.9596058157</v>
       </c>
       <c r="O6" t="n">
-        <v>35296.95960581575</v>
+        <v>35296.95960581591</v>
       </c>
       <c r="P6" t="n">
-        <v>-146875.233618757</v>
+        <v>-8865.645697029759</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108338</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.0465031175092</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.394295139198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>102.9876959703519</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>46.70852984594814</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>272.9991398118726</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>43.13981385480321</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>188.0135672782034</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>177.7978447627227</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>202.113974241756</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>104.4396773917995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>81.45679174647256</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>220.0769779437414</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>33.14692887354707</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>34.73496864393447</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32227,46 +32227,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>287.7526615081901</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768315</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412283</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043206</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>483.6693559063409</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
